--- a/data/trans_camb/P10_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,48</t>
+          <t>-1,42; 3,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,24</t>
+          <t>-0,8; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,06</t>
+          <t>-0,94; 1,94</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>139,03%</t>
+          <t>143,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>74,9%</t>
+          <t>64,44%</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,49</t>
+          <t>-5,77; 1,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,16</t>
+          <t>-2,61; 1,26</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,24%</t>
+          <t>-30,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 407,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-92,48; 529,56</t>
+          <t>-97,57; 568,81</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 8,5</t>
+          <t>-0,53; 9,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,49</t>
+          <t>-2,17; 1,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,81</t>
+          <t>-0,79; 4,66</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>136,9%</t>
+          <t>150,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>59,99%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 1171,05</t>
+          <t>-52,72; 1270,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-81,83; 179,53</t>
+          <t>-82,98; 222,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 306,29</t>
+          <t>-44,19; 371,17</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 8,94</t>
+          <t>-3,88; 9,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 0,33</t>
+          <t>-7,94; 0,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,57</t>
+          <t>-4,31; 4,16</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-45,92%</t>
+          <t>-42,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>-12,18%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 170,64</t>
+          <t>-41,51; 193,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,98; 10,86</t>
+          <t>-74,58; 17,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 56,06</t>
+          <t>-45,23; 73,81</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-5,94</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 7,05</t>
+          <t>-13,92; 4,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 4,93</t>
+          <t>-14,02; 1,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 3,0</t>
+          <t>-12,28; 0,69</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-23,52%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>-17,48%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-13,74%</t>
+          <t>-19,72%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 36,17</t>
+          <t>-49,65; 24,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 16,27</t>
+          <t>-37,5; 6,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 10,89</t>
+          <t>-38,19; 2,45</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,02</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,61</t>
+          <t>-2,5; 1,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,91</t>
+          <t>-3,53; 0,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,94</t>
+          <t>-2,51; 0,66</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-14,12%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 48,73</t>
+          <t>-37,33; 36,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 11,37</t>
+          <t>-38,35; 7,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 14,18</t>
+          <t>-32,56; 9,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,169 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 3,11</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 2,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 1,94</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>17,98%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>143,11%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>64,44%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.1442729306434553</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6021293972872893</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3619709462000302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.404735233997487</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.809643987381653</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.9439656951440368</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.315423477834611</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.63918276593569</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.948404191667078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 1,35</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 1,26</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.2094471807932401</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.353995254090529</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.6330464160658404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-30,98%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-97,57; 568,81</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +733,205 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.7149541390349482</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.6263532306150186</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.03341306452214511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 9,41</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 1,82</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 4,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.794555772055921</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.712852018786678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>150,43%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-11,95%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>59,99%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1.322498706133657</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.258698549088904</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.146150639938233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-52,72; 1270,67</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-82,98; 222,28</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-44,19; 371,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.3221139171706858</v>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.03051623939047717</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-3,44</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>-0.9762178993190118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 9,38</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 0,7</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 4,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="n">
+        <v>5.400588744194028</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-42,57%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-12,18%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.223741748737596</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.3532746788344917</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8880414264785398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-41,51; 193,72</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-74,58; 17,87</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-45,23; 73,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.5954836163030286</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.26663234030011</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.8422025877188195</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-5,82</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-5,96</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-5,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.828536845523455</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.612519339310493</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.304443189011149</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-13,92; 4,71</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-14,02; 1,89</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 0,69</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.424281031501015</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1919002717850072</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.5199697381541815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-23,52%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-17,48%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-19,72%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.5430290057382673</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.8417611310710426</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.4625487729179417</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-49,65; 24,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-37,5; 6,77</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-38,19; 2,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>12.0295058014764</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.96079832473223</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3.421674807358269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +939,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>1.787539832522009</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-3.589436678362703</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.9236959925997588</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 1,85</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 0,53</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 0,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-3.803027548426206</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-8.065782074105721</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-4.273592762024704</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-6,86%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-18,95%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-14,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>9.878704659429467</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>0.5714752489071653</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>4.368983568705782</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-37,33; 36,9</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-38,35; 7,65</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-32,56; 9,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.2325157622183041</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.4439735823071236</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.1171541022556938</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.4022603948991877</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.7600345584654962</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.4610582772886681</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>1.957279795598087</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1389619073003782</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.7390950854622769</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-3.678726673758448</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-4.934705819598251</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-4.422803268426367</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-12.01477434550942</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-12.69392693731387</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-10.89336746869148</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>8.69861009090012</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>3.709550690704099</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2.471936924691481</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.1486326778996804</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1446401826690744</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.1468936459928958</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.4392777923335638</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.34705346726887</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.3474676672165008</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.4379566996336121</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.120292847510792</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.08722469871842213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-0.05938050813328669</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-1.443463214743347</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.7674152222228503</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-2.286712050821941</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.448508499284412</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-2.265682284385365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>2.348426048012685</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0.6494783425921655</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.9109581810177816</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.01006257138724212</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.1708093723855818</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.1065057527008215</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.3499004724896289</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.3750490959296569</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.2997601502389764</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.4639201147099252</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.0775808201663625</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.1367652080682377</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1255,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
